--- a/Good-code-Preachers.xlsx
+++ b/Good-code-Preachers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727ede87984eae23/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leute\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DB114E441178AC67DF4A08694F294693EDF22" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{95D6BB9E-2CA1-489D-B85C-B4F3C0C1F2D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DFB09-D12A-4531-A2CF-B980262B1696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Saikot1997</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Activity diagram</t>
+  </si>
+  <si>
+    <t>Use case diadram</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -463,6 +472,15 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
